--- a/data/TCAndBugReports.xlsx
+++ b/data/TCAndBugReports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elite\eclipse-workspace\Image gallery app testing\Image-gallery-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD223954-7082-43B9-9ED9-8A81175A5E1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B926891D-5373-473D-B0E9-4EA2E0E56CF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="753" activeTab="1" xr2:uid="{22B4B265-A4C3-45FB-B93C-D4F3E3787C3D}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="90">
   <si>
     <t>Test pass: Y/N</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>The window reloads at the page of the selected gallery, the image whose link was moved is now first in the list</t>
+  </si>
+  <si>
+    <t>Westies</t>
+  </si>
+  <si>
+    <t>Westies, of all sizes!</t>
   </si>
 </sst>
 </file>
@@ -968,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E771295A-9223-41EE-A687-CF73323B35F0}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1133,7 +1139,9 @@
       <c r="C12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
       <c r="E12" s="11" t="s">
         <v>63</v>
       </c>
@@ -1250,7 +1258,9 @@
       <c r="C22" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="E22" s="11" t="s">
         <v>69</v>
       </c>
